--- a/MCOILBRENTEU.xlsx
+++ b/MCOILBRENTEU.xlsx
@@ -1,47 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/memmo/Documents/GitHub/time_series/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DE0113-72B6-244B-8937-8E4AFF583633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="680" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="Monthly" sheetId="2" r:id="rId2"/>
+    <sheet name="Monthly" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
-  <si>
-    <t>FRED Graph Observations</t>
-  </si>
-  <si>
-    <t>Federal Reserve Economic Data, Federal Reserve Bank of St. Louis</t>
-  </si>
-  <si>
-    <t>Link: https://fred.stlouisfed.org</t>
-  </si>
-  <si>
-    <t>Help: https://fredhelp.stlouisfed.org</t>
-  </si>
-  <si>
-    <t>This data may be copyrighted. Please refer to the Terms of Use: https://fred.stlouisfed.org/legal#fred-terms-faq</t>
-  </si>
-  <si>
-    <t>File Created: 2025-10-06 3:51 am CDT</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>MCOILBRENTEU</t>
-  </si>
-  <si>
-    <t>Crude Oil Prices: Brent - Europe, Dollars per Barrel, Monthly, Not Seasonally Adjusted</t>
-  </si>
-  <si>
-    <t>Data Updated: 2025-09-04</t>
   </si>
   <si>
     <t>observation_date</t>
@@ -50,12 +31,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,29 +87,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -167,7 +152,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -201,6 +186,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -235,9 +221,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -410,2577 +397,2518 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="85.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="76" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B313"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>35796</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>15.19</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>35827</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>14.07</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>35855</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>13.1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>35886</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>13.53</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>35916</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>14.36</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>35947</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>12.21</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>35977</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>12.08</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>36008</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>11.91</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>36039</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>13.34</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>36069</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>12.7</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>36100</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>11.04</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>36130</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>9.82</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>36161</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>11.11</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>36192</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>10.27</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>36220</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>12.51</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>36251</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>15.29</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>36281</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>15.23</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>36312</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>15.86</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>36342</v>
       </c>
-      <c r="B20" s="2">
-        <v>19.08</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="4">
+      <c r="B20" s="1">
+        <v>19.079999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>36373</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>20.22</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>36404</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>22.54</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>36434</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>36465</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>24.58</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
         <v>36495</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>25.47</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>36526</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>25.51</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <v>36557</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>27.78</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
         <v>36586</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>27.49</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
         <v>36617</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>22.76</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
         <v>36647</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>27.74</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
         <v>36678</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>29.8</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
         <v>36708</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>28.68</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
         <v>36739</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>30.2</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="4">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
         <v>36770</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>33.14</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="4">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
         <v>36800</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>30.96</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="4">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
         <v>36831</v>
       </c>
-      <c r="B36" s="2">
-        <v>32.55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="4">
+      <c r="B36" s="1">
+        <v>32.549999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
         <v>36861</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>25.66</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="4">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
         <v>36892</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>25.62</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="4">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
         <v>36923</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>27.5</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="4">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
         <v>36951</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>24.5</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="4">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
         <v>36982</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>25.66</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="4">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
         <v>37012</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>28.31</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="4">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
         <v>37043</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>27.85</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="4">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
         <v>37073</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>24.61</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="4">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
         <v>37104</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>25.68</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="4">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
         <v>37135</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>25.62</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="4">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
         <v>37165</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="1">
         <v>20.54</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="4">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
         <v>37196</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>18.8</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="4">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
         <v>37226</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="1">
         <v>18.71</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="4">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
         <v>37257</v>
       </c>
-      <c r="B50" s="2">
-        <v>19.42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="4">
+      <c r="B50" s="1">
+        <v>19.420000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
         <v>37288</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <v>20.28</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="4">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
         <v>37316</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>23.7</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="4">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
         <v>37347</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <v>25.73</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="4">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
         <v>37377</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <v>25.35</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="4">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
         <v>37408</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <v>24.08</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="4">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
         <v>37438</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="1">
         <v>25.74</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="4">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
         <v>37469</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <v>26.65</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="4">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
         <v>37500</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="1">
         <v>28.4</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="4">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
         <v>37530</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="1">
         <v>27.54</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="4">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
         <v>37561</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="1">
         <v>24.34</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="4">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
         <v>37591</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="1">
         <v>28.33</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="4">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
         <v>37622</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="1">
         <v>31.18</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="4">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
         <v>37653</v>
       </c>
-      <c r="B63" s="2">
-        <v>32.77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="4">
+      <c r="B63" s="1">
+        <v>32.770000000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
         <v>37681</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="1">
         <v>30.61</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="4">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
         <v>37712</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="4">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
         <v>37742</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="1">
         <v>25.86</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="4">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
         <v>37773</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="1">
         <v>27.65</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="4">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
         <v>37803</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="1">
         <v>28.35</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="4">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
         <v>37834</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="1">
         <v>29.89</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="4">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
         <v>37865</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="1">
         <v>27.11</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="4">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
         <v>37895</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="1">
         <v>29.61</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="4">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
         <v>37926</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="1">
         <v>28.75</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="4">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
         <v>37956</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="1">
         <v>29.81</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="4">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
         <v>37987</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="1">
         <v>31.28</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="4">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
         <v>38018</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="1">
         <v>30.86</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="4">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
         <v>38047</v>
       </c>
-      <c r="B76" s="2">
-        <v>33.63</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="4">
+      <c r="B76" s="1">
+        <v>33.630000000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
         <v>38078</v>
       </c>
-      <c r="B77" s="2">
-        <v>33.59</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="4">
+      <c r="B77" s="1">
+        <v>33.590000000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
         <v>38108</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="1">
         <v>37.57</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="4">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
         <v>38139</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="1">
         <v>35.18</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="4">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
         <v>38169</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="1">
         <v>38.22</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="4">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
         <v>38200</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="1">
         <v>42.74</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="4">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
         <v>38231</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="1">
         <v>43.2</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="4">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
         <v>38261</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="1">
         <v>49.78</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="4">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
         <v>38292</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="1">
         <v>43.11</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="4">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
         <v>38322</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="1">
         <v>39.6</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="4">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
         <v>38353</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="1">
         <v>44.51</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="4">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
         <v>38384</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="1">
         <v>45.48</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="4">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
         <v>38412</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="1">
         <v>53.1</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="4">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
         <v>38443</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="1">
         <v>51.88</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="4">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
         <v>38473</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="1">
         <v>48.65</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="4">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
         <v>38504</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="1">
         <v>54.35</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="4">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
         <v>38534</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="1">
         <v>57.52</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="4">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
         <v>38565</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="1">
         <v>63.98</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="4">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
         <v>38596</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="1">
         <v>62.91</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="4">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
         <v>38626</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="1">
         <v>58.54</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="4">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
         <v>38657</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="1">
         <v>55.24</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="4">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
         <v>38687</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="1">
         <v>56.86</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="4">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
         <v>38718</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="1">
         <v>62.99</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="4">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
         <v>38749</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="1">
         <v>60.21</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="4">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
         <v>38777</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="1">
         <v>62.06</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="4">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
         <v>38808</v>
       </c>
-      <c r="B101" s="2">
-        <v>70.26000000000001</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="4">
+      <c r="B101" s="1">
+        <v>70.260000000000005</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
         <v>38838</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="1">
         <v>69.78</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="4">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
         <v>38869</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="1">
         <v>68.56</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="4">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
         <v>38899</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="1">
         <v>73.67</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="4">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
         <v>38930</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="1">
         <v>73.23</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="4">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
         <v>38961</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="1">
         <v>61.96</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="4">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
         <v>38991</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="1">
         <v>57.81</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="4">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
         <v>39022</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="1">
         <v>58.76</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="4">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
         <v>39052</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="1">
         <v>62.47</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="4">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
         <v>39083</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="1">
         <v>53.68</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="4">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
         <v>39114</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="1">
         <v>57.56</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="4">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
         <v>39142</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="1">
         <v>62.05</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="4">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
         <v>39173</v>
       </c>
-      <c r="B113" s="2">
-        <v>67.48999999999999</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="4">
+      <c r="B113" s="1">
+        <v>67.489999999999995</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
         <v>39203</v>
       </c>
-      <c r="B114" s="2">
-        <v>67.20999999999999</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="4">
+      <c r="B114" s="1">
+        <v>67.209999999999994</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
         <v>39234</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="1">
         <v>71.05</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="4">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
         <v>39264</v>
       </c>
-      <c r="B116" s="2">
-        <v>76.93000000000001</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="4">
+      <c r="B116" s="1">
+        <v>76.930000000000007</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
         <v>39295</v>
       </c>
-      <c r="B117" s="2">
-        <v>70.76000000000001</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="4">
+      <c r="B117" s="1">
+        <v>70.760000000000005</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
         <v>39326</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="1">
         <v>77.17</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="4">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
         <v>39356</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="1">
         <v>82.34</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="4">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
         <v>39387</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="1">
         <v>92.41</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="4">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
         <v>39417</v>
       </c>
-      <c r="B121" s="2">
-        <v>90.93000000000001</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="4">
+      <c r="B121" s="1">
+        <v>90.93</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
         <v>39448</v>
       </c>
-      <c r="B122" s="2">
-        <v>92.18000000000001</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="4">
+      <c r="B122" s="1">
+        <v>92.18</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
         <v>39479</v>
       </c>
-      <c r="B123" s="2">
-        <v>94.98999999999999</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="4">
+      <c r="B123" s="1">
+        <v>94.99</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
         <v>39508</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="1">
         <v>103.64</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="4">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
         <v>39539</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="1">
         <v>109.07</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="4">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
         <v>39569</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="1">
         <v>122.8</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="4">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
         <v>39600</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="1">
         <v>132.32</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="4">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
         <v>39630</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="1">
         <v>132.72</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="4">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
         <v>39661</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="1">
         <v>113.24</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="4">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
         <v>39692</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="1">
         <v>97.23</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="4">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
         <v>39722</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="1">
         <v>71.58</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="4">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
         <v>39753</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="1">
         <v>52.45</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="4">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
         <v>39783</v>
       </c>
-      <c r="B133" s="2">
-        <v>39.95</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="4">
+      <c r="B133" s="1">
+        <v>39.950000000000003</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
         <v>39814</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="1">
         <v>43.44</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="4">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
         <v>39845</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135" s="1">
         <v>43.32</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="4">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
         <v>39873</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136" s="1">
         <v>46.54</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="4">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
         <v>39904</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="1">
         <v>50.18</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="4">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
         <v>39934</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" s="1">
         <v>57.3</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="4">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
         <v>39965</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139" s="1">
         <v>68.61</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="4">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
         <v>39995</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" s="1">
         <v>64.44</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="4">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
         <v>40026</v>
       </c>
-      <c r="B141" s="2">
-        <v>72.51000000000001</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="4">
+      <c r="B141" s="1">
+        <v>72.510000000000005</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
         <v>40057</v>
       </c>
-      <c r="B142" s="2">
-        <v>67.65000000000001</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="4">
+      <c r="B142" s="1">
+        <v>67.650000000000006</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="3">
         <v>40087</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="1">
         <v>72.77</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="4">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
         <v>40118</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144" s="1">
         <v>76.66</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="4">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
         <v>40148</v>
       </c>
-      <c r="B145" s="2">
-        <v>74.45999999999999</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="4">
+      <c r="B145" s="1">
+        <v>74.459999999999994</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="3">
         <v>40179</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="1">
         <v>76.17</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="4">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="3">
         <v>40210</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="1">
         <v>73.75</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="4">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
         <v>40238</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="1">
         <v>78.83</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="4">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
         <v>40269</v>
       </c>
-      <c r="B149" s="2">
-        <v>84.81999999999999</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="4">
+      <c r="B149" s="1">
+        <v>84.82</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
         <v>40299</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150" s="1">
         <v>75.95</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="4">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
         <v>40330</v>
       </c>
-      <c r="B151" s="2">
-        <v>74.76000000000001</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="4">
+      <c r="B151" s="1">
+        <v>74.760000000000005</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="3">
         <v>40360</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="1">
         <v>75.58</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="4">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
         <v>40391</v>
       </c>
-      <c r="B153" s="2">
-        <v>77.04000000000001</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="4">
+      <c r="B153" s="1">
+        <v>77.040000000000006</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="3">
         <v>40422</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" s="1">
         <v>77.84</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="4">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="3">
         <v>40452</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="1">
         <v>82.67</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="4">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="3">
         <v>40483</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="1">
         <v>85.28</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="4">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="3">
         <v>40513</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157" s="1">
         <v>91.45</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="4">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="3">
         <v>40544</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158" s="1">
         <v>96.52</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="4">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="3">
         <v>40575</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159" s="1">
         <v>103.72</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="4">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="3">
         <v>40603</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160" s="1">
         <v>114.64</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="4">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="3">
         <v>40634</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161" s="1">
         <v>123.26</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="4">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="3">
         <v>40664</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162" s="1">
         <v>114.99</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="4">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="3">
         <v>40695</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163" s="1">
         <v>113.83</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="4">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="3">
         <v>40725</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164" s="1">
         <v>116.97</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="4">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="3">
         <v>40756</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165" s="1">
         <v>110.22</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="4">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="3">
         <v>40787</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B166" s="1">
         <v>112.83</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="4">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="3">
         <v>40817</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167" s="1">
         <v>109.55</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="4">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="3">
         <v>40848</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B168" s="1">
         <v>110.77</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="4">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="3">
         <v>40878</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B169" s="1">
         <v>107.87</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="4">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="3">
         <v>40909</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170" s="1">
         <v>110.69</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="4">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="3">
         <v>40940</v>
       </c>
-      <c r="B171" s="2">
+      <c r="B171" s="1">
         <v>119.33</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="4">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="3">
         <v>40969</v>
       </c>
-      <c r="B172" s="2">
+      <c r="B172" s="1">
         <v>125.45</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="4">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="3">
         <v>41000</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B173" s="1">
         <v>119.75</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="4">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="3">
         <v>41030</v>
       </c>
-      <c r="B174" s="2">
+      <c r="B174" s="1">
         <v>110.34</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="4">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="3">
         <v>41061</v>
       </c>
-      <c r="B175" s="2">
+      <c r="B175" s="1">
         <v>95.16</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="4">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="3">
         <v>41091</v>
       </c>
-      <c r="B176" s="2">
+      <c r="B176" s="1">
         <v>102.62</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="4">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="3">
         <v>41122</v>
       </c>
-      <c r="B177" s="2">
+      <c r="B177" s="1">
         <v>113.36</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
-      <c r="A178" s="4">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="3">
         <v>41153</v>
       </c>
-      <c r="B178" s="2">
+      <c r="B178" s="1">
         <v>112.86</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
-      <c r="A179" s="4">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="3">
         <v>41183</v>
       </c>
-      <c r="B179" s="2">
+      <c r="B179" s="1">
         <v>111.71</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
-      <c r="A180" s="4">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="3">
         <v>41214</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B180" s="1">
         <v>109.06</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
-      <c r="A181" s="4">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="3">
         <v>41244</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B181" s="1">
         <v>109.49</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="4">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="3">
         <v>41275</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B182" s="1">
         <v>112.96</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
-      <c r="A183" s="4">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="3">
         <v>41306</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B183" s="1">
         <v>116.05</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
-      <c r="A184" s="4">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="3">
         <v>41334</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B184" s="1">
         <v>108.47</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
-      <c r="A185" s="4">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="3">
         <v>41365</v>
       </c>
-      <c r="B185" s="2">
+      <c r="B185" s="1">
         <v>102.25</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
-      <c r="A186" s="4">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="3">
         <v>41395</v>
       </c>
-      <c r="B186" s="2">
+      <c r="B186" s="1">
         <v>102.56</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
-      <c r="A187" s="4">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="3">
         <v>41426</v>
       </c>
-      <c r="B187" s="2">
+      <c r="B187" s="1">
         <v>102.92</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
-      <c r="A188" s="4">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="3">
         <v>41456</v>
       </c>
-      <c r="B188" s="2">
+      <c r="B188" s="1">
         <v>107.93</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
-      <c r="A189" s="4">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="3">
         <v>41487</v>
       </c>
-      <c r="B189" s="2">
+      <c r="B189" s="1">
         <v>111.28</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
-      <c r="A190" s="4">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="3">
         <v>41518</v>
       </c>
-      <c r="B190" s="2">
+      <c r="B190" s="1">
         <v>111.6</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
-      <c r="A191" s="4">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="3">
         <v>41548</v>
       </c>
-      <c r="B191" s="2">
+      <c r="B191" s="1">
         <v>109.08</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
-      <c r="A192" s="4">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="3">
         <v>41579</v>
       </c>
-      <c r="B192" s="2">
+      <c r="B192" s="1">
         <v>107.79</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
-      <c r="A193" s="4">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="3">
         <v>41609</v>
       </c>
-      <c r="B193" s="2">
+      <c r="B193" s="1">
         <v>110.76</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
-      <c r="A194" s="4">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="3">
         <v>41640</v>
       </c>
-      <c r="B194" s="2">
+      <c r="B194" s="1">
         <v>108.12</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
-      <c r="A195" s="4">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="3">
         <v>41671</v>
       </c>
-      <c r="B195" s="2">
+      <c r="B195" s="1">
         <v>108.9</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
-      <c r="A196" s="4">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="3">
         <v>41699</v>
       </c>
-      <c r="B196" s="2">
+      <c r="B196" s="1">
         <v>107.48</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
-      <c r="A197" s="4">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="3">
         <v>41730</v>
       </c>
-      <c r="B197" s="2">
+      <c r="B197" s="1">
         <v>107.76</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="4">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="3">
         <v>41760</v>
       </c>
-      <c r="B198" s="2">
+      <c r="B198" s="1">
         <v>109.54</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
-      <c r="A199" s="4">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="3">
         <v>41791</v>
       </c>
-      <c r="B199" s="2">
+      <c r="B199" s="1">
         <v>111.8</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
-      <c r="A200" s="4">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="3">
         <v>41821</v>
       </c>
-      <c r="B200" s="2">
+      <c r="B200" s="1">
         <v>106.77</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="4">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="3">
         <v>41852</v>
       </c>
-      <c r="B201" s="2">
+      <c r="B201" s="1">
         <v>101.61</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
-      <c r="A202" s="4">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="3">
         <v>41883</v>
       </c>
-      <c r="B202" s="2">
+      <c r="B202" s="1">
         <v>97.09</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="4">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="3">
         <v>41913</v>
       </c>
-      <c r="B203" s="2">
-        <v>87.43000000000001</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" s="4">
+      <c r="B203" s="1">
+        <v>87.43</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="3">
         <v>41944</v>
       </c>
-      <c r="B204" s="2">
+      <c r="B204" s="1">
         <v>79.44</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
-      <c r="A205" s="4">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="3">
         <v>41974</v>
       </c>
-      <c r="B205" s="2">
+      <c r="B205" s="1">
         <v>62.34</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
-      <c r="A206" s="4">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="3">
         <v>42005</v>
       </c>
-      <c r="B206" s="2">
+      <c r="B206" s="1">
         <v>47.76</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
-      <c r="A207" s="4">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="3">
         <v>42036</v>
       </c>
-      <c r="B207" s="2">
+      <c r="B207" s="1">
         <v>58.1</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="4">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="3">
         <v>42064</v>
       </c>
-      <c r="B208" s="2">
+      <c r="B208" s="1">
         <v>55.89</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
-      <c r="A209" s="4">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="3">
         <v>42095</v>
       </c>
-      <c r="B209" s="2">
+      <c r="B209" s="1">
         <v>59.52</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
-      <c r="A210" s="4">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="3">
         <v>42125</v>
       </c>
-      <c r="B210" s="2">
+      <c r="B210" s="1">
         <v>64.08</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
-      <c r="A211" s="4">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="3">
         <v>42156</v>
       </c>
-      <c r="B211" s="2">
+      <c r="B211" s="1">
         <v>61.48</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
-      <c r="A212" s="4">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="3">
         <v>42186</v>
       </c>
-      <c r="B212" s="2">
+      <c r="B212" s="1">
         <v>56.56</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
-      <c r="A213" s="4">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="3">
         <v>42217</v>
       </c>
-      <c r="B213" s="2">
+      <c r="B213" s="1">
         <v>46.52</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
-      <c r="A214" s="4">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="3">
         <v>42248</v>
       </c>
-      <c r="B214" s="2">
+      <c r="B214" s="1">
         <v>47.62</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
-      <c r="A215" s="4">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="3">
         <v>42278</v>
       </c>
-      <c r="B215" s="2">
+      <c r="B215" s="1">
         <v>48.43</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
-      <c r="A216" s="4">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="3">
         <v>42309</v>
       </c>
-      <c r="B216" s="2">
+      <c r="B216" s="1">
         <v>44.27</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
-      <c r="A217" s="4">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" s="3">
         <v>42339</v>
       </c>
-      <c r="B217" s="2">
+      <c r="B217" s="1">
         <v>38.01</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
-      <c r="A218" s="4">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" s="3">
         <v>42370</v>
       </c>
-      <c r="B218" s="2">
+      <c r="B218" s="1">
         <v>30.7</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
-      <c r="A219" s="4">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" s="3">
         <v>42401</v>
       </c>
-      <c r="B219" s="2">
+      <c r="B219" s="1">
         <v>32.18</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
-      <c r="A220" s="4">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" s="3">
         <v>42430</v>
       </c>
-      <c r="B220" s="2">
+      <c r="B220" s="1">
         <v>38.21</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
-      <c r="A221" s="4">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" s="3">
         <v>42461</v>
       </c>
-      <c r="B221" s="2">
+      <c r="B221" s="1">
         <v>41.58</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
-      <c r="A222" s="4">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="3">
         <v>42491</v>
       </c>
-      <c r="B222" s="2">
+      <c r="B222" s="1">
         <v>46.74</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
-      <c r="A223" s="4">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" s="3">
         <v>42522</v>
       </c>
-      <c r="B223" s="2">
+      <c r="B223" s="1">
         <v>48.25</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
-      <c r="A224" s="4">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" s="3">
         <v>42552</v>
       </c>
-      <c r="B224" s="2">
+      <c r="B224" s="1">
         <v>44.95</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
-      <c r="A225" s="4">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" s="3">
         <v>42583</v>
       </c>
-      <c r="B225" s="2">
+      <c r="B225" s="1">
         <v>45.84</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
-      <c r="A226" s="4">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" s="3">
         <v>42614</v>
       </c>
-      <c r="B226" s="2">
+      <c r="B226" s="1">
         <v>46.57</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
-      <c r="A227" s="4">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="3">
         <v>42644</v>
       </c>
-      <c r="B227" s="2">
+      <c r="B227" s="1">
         <v>49.52</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
-      <c r="A228" s="4">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" s="3">
         <v>42675</v>
       </c>
-      <c r="B228" s="2">
+      <c r="B228" s="1">
         <v>44.73</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
-      <c r="A229" s="4">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" s="3">
         <v>42705</v>
       </c>
-      <c r="B229" s="2">
+      <c r="B229" s="1">
         <v>53.31</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
-      <c r="A230" s="4">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" s="3">
         <v>42736</v>
       </c>
-      <c r="B230" s="2">
+      <c r="B230" s="1">
         <v>54.58</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
-      <c r="A231" s="4">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" s="3">
         <v>42767</v>
       </c>
-      <c r="B231" s="2">
+      <c r="B231" s="1">
         <v>54.87</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
-      <c r="A232" s="4">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" s="3">
         <v>42795</v>
       </c>
-      <c r="B232" s="2">
+      <c r="B232" s="1">
         <v>51.59</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
-      <c r="A233" s="4">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="3">
         <v>42826</v>
       </c>
-      <c r="B233" s="2">
+      <c r="B233" s="1">
         <v>52.31</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
-      <c r="A234" s="4">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" s="3">
         <v>42856</v>
       </c>
-      <c r="B234" s="2">
+      <c r="B234" s="1">
         <v>50.33</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
-      <c r="A235" s="4">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" s="3">
         <v>42887</v>
       </c>
-      <c r="B235" s="2">
+      <c r="B235" s="1">
         <v>46.37</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
-      <c r="A236" s="4">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" s="3">
         <v>42917</v>
       </c>
-      <c r="B236" s="2">
+      <c r="B236" s="1">
         <v>48.48</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
-      <c r="A237" s="4">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" s="3">
         <v>42948</v>
       </c>
-      <c r="B237" s="2">
+      <c r="B237" s="1">
         <v>51.7</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
-      <c r="A238" s="4">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" s="3">
         <v>42979</v>
       </c>
-      <c r="B238" s="2">
+      <c r="B238" s="1">
         <v>56.15</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
-      <c r="A239" s="4">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" s="3">
         <v>43009</v>
       </c>
-      <c r="B239" s="2">
+      <c r="B239" s="1">
         <v>57.51</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
-      <c r="A240" s="4">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" s="3">
         <v>43040</v>
       </c>
-      <c r="B240" s="2">
+      <c r="B240" s="1">
         <v>62.71</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
-      <c r="A241" s="4">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" s="3">
         <v>43070</v>
       </c>
-      <c r="B241" s="2">
+      <c r="B241" s="1">
         <v>64.37</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
-      <c r="A242" s="4">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" s="3">
         <v>43101</v>
       </c>
-      <c r="B242" s="2">
+      <c r="B242" s="1">
         <v>69.08</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
-      <c r="A243" s="4">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" s="3">
         <v>43132</v>
       </c>
-      <c r="B243" s="2">
-        <v>65.31999999999999</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244" s="4">
+      <c r="B243" s="1">
+        <v>65.319999999999993</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" s="3">
         <v>43160</v>
       </c>
-      <c r="B244" s="2">
+      <c r="B244" s="1">
         <v>66.02</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
-      <c r="A245" s="4">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" s="3">
         <v>43191</v>
       </c>
-      <c r="B245" s="2">
+      <c r="B245" s="1">
         <v>72.11</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
-      <c r="A246" s="4">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" s="3">
         <v>43221</v>
       </c>
-      <c r="B246" s="2">
+      <c r="B246" s="1">
         <v>76.98</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
-      <c r="A247" s="4">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" s="3">
         <v>43252</v>
       </c>
-      <c r="B247" s="2">
+      <c r="B247" s="1">
         <v>74.41</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
-      <c r="A248" s="4">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" s="3">
         <v>43282</v>
       </c>
-      <c r="B248" s="2">
+      <c r="B248" s="1">
         <v>74.25</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
-      <c r="A249" s="4">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" s="3">
         <v>43313</v>
       </c>
-      <c r="B249" s="2">
+      <c r="B249" s="1">
         <v>72.53</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
-      <c r="A250" s="4">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" s="3">
         <v>43344</v>
       </c>
-      <c r="B250" s="2">
+      <c r="B250" s="1">
         <v>78.89</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
-      <c r="A251" s="4">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" s="3">
         <v>43374</v>
       </c>
-      <c r="B251" s="2">
+      <c r="B251" s="1">
         <v>81.03</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
-      <c r="A252" s="4">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" s="3">
         <v>43405</v>
       </c>
-      <c r="B252" s="2">
+      <c r="B252" s="1">
         <v>64.75</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
-      <c r="A253" s="4">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" s="3">
         <v>43435</v>
       </c>
-      <c r="B253" s="2">
+      <c r="B253" s="1">
         <v>57.36</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
-      <c r="A254" s="4">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" s="3">
         <v>43466</v>
       </c>
-      <c r="B254" s="2">
+      <c r="B254" s="1">
         <v>59.41</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
-      <c r="A255" s="4">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" s="3">
         <v>43497</v>
       </c>
-      <c r="B255" s="2">
+      <c r="B255" s="1">
         <v>63.96</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
-      <c r="A256" s="4">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" s="3">
         <v>43525</v>
       </c>
-      <c r="B256" s="2">
+      <c r="B256" s="1">
         <v>66.14</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
-      <c r="A257" s="4">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" s="3">
         <v>43556</v>
       </c>
-      <c r="B257" s="2">
+      <c r="B257" s="1">
         <v>71.23</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
-      <c r="A258" s="4">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" s="3">
         <v>43586</v>
       </c>
-      <c r="B258" s="2">
-        <v>71.31999999999999</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" s="4">
+      <c r="B258" s="1">
+        <v>71.319999999999993</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" s="3">
         <v>43617</v>
       </c>
-      <c r="B259" s="2">
+      <c r="B259" s="1">
         <v>64.22</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
-      <c r="A260" s="4">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" s="3">
         <v>43647</v>
       </c>
-      <c r="B260" s="2">
+      <c r="B260" s="1">
         <v>63.92</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
-      <c r="A261" s="4">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" s="3">
         <v>43678</v>
       </c>
-      <c r="B261" s="2">
+      <c r="B261" s="1">
         <v>59.04</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
-      <c r="A262" s="4">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" s="3">
         <v>43709</v>
       </c>
-      <c r="B262" s="2">
+      <c r="B262" s="1">
         <v>62.83</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
-      <c r="A263" s="4">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" s="3">
         <v>43739</v>
       </c>
-      <c r="B263" s="2">
+      <c r="B263" s="1">
         <v>59.71</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
-      <c r="A264" s="4">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" s="3">
         <v>43770</v>
       </c>
-      <c r="B264" s="2">
+      <c r="B264" s="1">
         <v>63.21</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
-      <c r="A265" s="4">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" s="3">
         <v>43800</v>
       </c>
-      <c r="B265" s="2">
+      <c r="B265" s="1">
         <v>67.31</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
-      <c r="A266" s="4">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" s="3">
         <v>43831</v>
       </c>
-      <c r="B266" s="2">
+      <c r="B266" s="1">
         <v>63.65</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
-      <c r="A267" s="4">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" s="3">
         <v>43862</v>
       </c>
-      <c r="B267" s="2">
+      <c r="B267" s="1">
         <v>55.66</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
-      <c r="A268" s="4">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" s="3">
         <v>43891</v>
       </c>
-      <c r="B268" s="2">
+      <c r="B268" s="1">
         <v>32.01</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
-      <c r="A269" s="4">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" s="3">
         <v>43922</v>
       </c>
-      <c r="B269" s="2">
+      <c r="B269" s="1">
         <v>18.38</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
-      <c r="A270" s="4">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" s="3">
         <v>43952</v>
       </c>
-      <c r="B270" s="2">
+      <c r="B270" s="1">
         <v>29.38</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
-      <c r="A271" s="4">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" s="3">
         <v>43983</v>
       </c>
-      <c r="B271" s="2">
-        <v>40.27</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272" s="4">
+      <c r="B271" s="1">
+        <v>40.270000000000003</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" s="3">
         <v>44013</v>
       </c>
-      <c r="B272" s="2">
+      <c r="B272" s="1">
         <v>43.24</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
-      <c r="A273" s="4">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" s="3">
         <v>44044</v>
       </c>
-      <c r="B273" s="2">
+      <c r="B273" s="1">
         <v>44.74</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
-      <c r="A274" s="4">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" s="3">
         <v>44075</v>
       </c>
-      <c r="B274" s="2">
-        <v>40.91</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
-      <c r="A275" s="4">
+      <c r="B274" s="1">
+        <v>40.909999999999997</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" s="3">
         <v>44105</v>
       </c>
-      <c r="B275" s="2">
+      <c r="B275" s="1">
         <v>40.19</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
-      <c r="A276" s="4">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" s="3">
         <v>44136</v>
       </c>
-      <c r="B276" s="2">
+      <c r="B276" s="1">
         <v>42.69</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
-      <c r="A277" s="4">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" s="3">
         <v>44166</v>
       </c>
-      <c r="B277" s="2">
+      <c r="B277" s="1">
         <v>49.99</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
-      <c r="A278" s="4">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" s="3">
         <v>44197</v>
       </c>
-      <c r="B278" s="2">
+      <c r="B278" s="1">
         <v>54.77</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
-      <c r="A279" s="4">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" s="3">
         <v>44228</v>
       </c>
-      <c r="B279" s="2">
+      <c r="B279" s="1">
         <v>62.28</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
-      <c r="A280" s="4">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" s="3">
         <v>44256</v>
       </c>
-      <c r="B280" s="2">
+      <c r="B280" s="1">
         <v>65.41</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
-      <c r="A281" s="4">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" s="3">
         <v>44287</v>
       </c>
-      <c r="B281" s="2">
+      <c r="B281" s="1">
         <v>64.81</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
-      <c r="A282" s="4">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" s="3">
         <v>44317</v>
       </c>
-      <c r="B282" s="2">
+      <c r="B282" s="1">
         <v>68.53</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
-      <c r="A283" s="4">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" s="3">
         <v>44348</v>
       </c>
-      <c r="B283" s="2">
+      <c r="B283" s="1">
         <v>73.16</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
-      <c r="A284" s="4">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" s="3">
         <v>44378</v>
       </c>
-      <c r="B284" s="2">
+      <c r="B284" s="1">
         <v>75.17</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
-      <c r="A285" s="4">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" s="3">
         <v>44409</v>
       </c>
-      <c r="B285" s="2">
+      <c r="B285" s="1">
         <v>70.75</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
-      <c r="A286" s="4">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" s="3">
         <v>44440</v>
       </c>
-      <c r="B286" s="2">
-        <v>74.48999999999999</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
-      <c r="A287" s="4">
+      <c r="B286" s="1">
+        <v>74.489999999999995</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" s="3">
         <v>44470</v>
       </c>
-      <c r="B287" s="2">
-        <v>83.54000000000001</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
-      <c r="A288" s="4">
+      <c r="B287" s="1">
+        <v>83.54</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" s="3">
         <v>44501</v>
       </c>
-      <c r="B288" s="2">
+      <c r="B288" s="1">
         <v>81.05</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
-      <c r="A289" s="4">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" s="3">
         <v>44531</v>
       </c>
-      <c r="B289" s="2">
+      <c r="B289" s="1">
         <v>74.17</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
-      <c r="A290" s="4">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" s="3">
         <v>44562</v>
       </c>
-      <c r="B290" s="2">
-        <v>86.51000000000001</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2">
-      <c r="A291" s="4">
+      <c r="B290" s="1">
+        <v>86.51</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" s="3">
         <v>44593</v>
       </c>
-      <c r="B291" s="2">
+      <c r="B291" s="1">
         <v>97.13</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
-      <c r="A292" s="4">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" s="3">
         <v>44621</v>
       </c>
-      <c r="B292" s="2">
+      <c r="B292" s="1">
         <v>117.25</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
-      <c r="A293" s="4">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" s="3">
         <v>44652</v>
       </c>
-      <c r="B293" s="2">
+      <c r="B293" s="1">
         <v>104.58</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
-      <c r="A294" s="4">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" s="3">
         <v>44682</v>
       </c>
-      <c r="B294" s="2">
+      <c r="B294" s="1">
         <v>113.34</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
-      <c r="A295" s="4">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" s="3">
         <v>44713</v>
       </c>
-      <c r="B295" s="2">
+      <c r="B295" s="1">
         <v>122.71</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
-      <c r="A296" s="4">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" s="3">
         <v>44743</v>
       </c>
-      <c r="B296" s="2">
+      <c r="B296" s="1">
         <v>111.93</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
-      <c r="A297" s="4">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" s="3">
         <v>44774</v>
       </c>
-      <c r="B297" s="2">
+      <c r="B297" s="1">
         <v>100.45</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
-      <c r="A298" s="4">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" s="3">
         <v>44805</v>
       </c>
-      <c r="B298" s="2">
-        <v>89.76000000000001</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2">
-      <c r="A299" s="4">
+      <c r="B298" s="1">
+        <v>89.76</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" s="3">
         <v>44835</v>
       </c>
-      <c r="B299" s="2">
+      <c r="B299" s="1">
         <v>93.33</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
-      <c r="A300" s="4">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" s="3">
         <v>44866</v>
       </c>
-      <c r="B300" s="2">
+      <c r="B300" s="1">
         <v>91.42</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
-      <c r="A301" s="4">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" s="3">
         <v>44896</v>
       </c>
-      <c r="B301" s="2">
+      <c r="B301" s="1">
         <v>80.92</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
-      <c r="A302" s="4">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" s="3">
         <v>44927</v>
       </c>
-      <c r="B302" s="2">
+      <c r="B302" s="1">
         <v>82.5</v>
       </c>
     </row>
-    <row r="303" spans="1:2">
-      <c r="A303" s="4">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" s="3">
         <v>44958</v>
       </c>
-      <c r="B303" s="2">
+      <c r="B303" s="1">
         <v>82.59</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
-      <c r="A304" s="4">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" s="3">
         <v>44986</v>
       </c>
-      <c r="B304" s="2">
-        <v>78.43000000000001</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2">
-      <c r="A305" s="4">
+      <c r="B304" s="1">
+        <v>78.430000000000007</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" s="3">
         <v>45017</v>
       </c>
-      <c r="B305" s="2">
+      <c r="B305" s="1">
         <v>84.64</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
-      <c r="A306" s="4">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" s="3">
         <v>45047</v>
       </c>
-      <c r="B306" s="2">
+      <c r="B306" s="1">
         <v>75.47</v>
       </c>
     </row>
-    <row r="307" spans="1:2">
-      <c r="A307" s="4">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" s="3">
         <v>45078</v>
       </c>
-      <c r="B307" s="2">
+      <c r="B307" s="1">
         <v>74.84</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
-      <c r="A308" s="4">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" s="3">
         <v>45108</v>
       </c>
-      <c r="B308" s="2">
+      <c r="B308" s="1">
         <v>80.11</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
-      <c r="A309" s="4">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" s="3">
         <v>45139</v>
       </c>
-      <c r="B309" s="2">
-        <v>86.15000000000001</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2">
-      <c r="A310" s="4">
+      <c r="B309" s="1">
+        <v>86.15</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" s="3">
         <v>45170</v>
       </c>
-      <c r="B310" s="2">
+      <c r="B310" s="1">
         <v>93.72</v>
       </c>
     </row>
-    <row r="311" spans="1:2">
-      <c r="A311" s="4">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" s="3">
         <v>45200</v>
       </c>
-      <c r="B311" s="2">
-        <v>90.59999999999999</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2">
-      <c r="A312" s="4">
+      <c r="B311" s="1">
+        <v>90.6</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" s="3">
         <v>45231</v>
       </c>
-      <c r="B312" s="2">
+      <c r="B312" s="1">
         <v>82.94</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
-      <c r="A313" s="4">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" s="3">
         <v>45261</v>
       </c>
-      <c r="B313" s="2">
+      <c r="B313" s="1">
         <v>77.63</v>
       </c>
     </row>
